--- a/Campus/infoway_campus.xlsx
+++ b/Campus/infoway_campus.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD7139-5DD8-4C71-A03F-9CB3FE9A5D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$AR$3:$AW$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -708,18 +702,30 @@
   </si>
   <si>
     <t>Voter ID</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Student_order Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -790,13 +796,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,13 +960,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1196,21 +1252,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:U29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="6" bestFit="1" customWidth="1"/>
@@ -1237,12 +1293,12 @@
     <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:21" ht="21">
+      <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1263,7 +1319,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="30">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -1377,7 +1433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="30">
       <c r="B7" s="10">
         <v>2</v>
       </c>
@@ -1435,7 +1491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="30">
       <c r="B8" s="10">
         <v>3</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="30">
       <c r="B9" s="10">
         <v>4</v>
       </c>
@@ -1551,7 +1607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="30">
       <c r="B10" s="10">
         <v>5</v>
       </c>
@@ -1588,7 +1644,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="30">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1616,7 +1672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="30">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1644,7 +1700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="30">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1672,7 +1728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="30">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1700,7 +1756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="30">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1728,7 +1784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="30">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1756,7 +1812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1784,7 +1840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1812,7 +1868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1840,7 +1896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1868,7 +1924,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="30">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1896,7 +1952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="30">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1924,7 +1980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="30">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1952,7 +2008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="30">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1980,7 +2036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2008,16 +2064,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="J29" s="16"/>
     </row>
   </sheetData>
@@ -2030,15 +2086,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:BV96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:CA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CF35" sqref="CF35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
@@ -2113,10 +2169,14 @@
     <col min="72" max="72" width="13.85546875" style="6" customWidth="1"/>
     <col min="73" max="73" width="16" style="6" customWidth="1"/>
     <col min="74" max="74" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.140625" style="6"/>
+    <col min="75" max="75" width="2.5703125" style="6" customWidth="1"/>
+    <col min="76" max="76" width="9.140625" style="6"/>
+    <col min="77" max="77" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:79" ht="30" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2152,22 +2212,22 @@
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
       <c r="AH2" s="5"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AN2" s="46" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AN2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
       <c r="AR2" s="8" t="s">
         <v>23</v>
       </c>
@@ -2205,8 +2265,14 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
-    </row>
-    <row r="3" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX2" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="BY2" s="51"/>
+      <c r="BZ2" s="51"/>
+      <c r="CA2" s="51"/>
+    </row>
+    <row r="3" spans="2:79" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
@@ -2387,8 +2453,20 @@
       <c r="BV3" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -2571,8 +2649,20 @@
       <c r="BV4" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA4" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -2755,8 +2845,20 @@
       <c r="BV5" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA5" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -2939,8 +3041,20 @@
       <c r="BV6" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX6" s="10">
+        <v>3</v>
+      </c>
+      <c r="BY6" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ6" s="46">
+        <v>43694</v>
+      </c>
+      <c r="CA6" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -3123,8 +3237,20 @@
       <c r="BV7" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX7" s="10">
+        <v>4</v>
+      </c>
+      <c r="BY7" s="10">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="46">
+        <v>43587</v>
+      </c>
+      <c r="CA7" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="21">
         <v>5</v>
       </c>
@@ -3282,8 +3408,20 @@
       <c r="BV8" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY8" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ8" s="46">
+        <v>43588</v>
+      </c>
+      <c r="CA8" s="10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -3441,8 +3579,20 @@
       <c r="BV9" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX9" s="10">
+        <v>6</v>
+      </c>
+      <c r="BY9" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ9" s="46">
+        <v>43589</v>
+      </c>
+      <c r="CA9" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -3600,8 +3750,20 @@
       <c r="BV10" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX10" s="10">
+        <v>7</v>
+      </c>
+      <c r="BY10" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ10" s="46">
+        <v>43780</v>
+      </c>
+      <c r="CA10" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="21">
         <v>8</v>
       </c>
@@ -3751,8 +3913,20 @@
       <c r="BV11" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX11" s="10">
+        <v>8</v>
+      </c>
+      <c r="BY11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="46">
+        <v>43665</v>
+      </c>
+      <c r="CA11" s="10">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="21">
         <v>9</v>
       </c>
@@ -3896,8 +4070,20 @@
       <c r="BV12" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX12" s="10">
+        <v>9</v>
+      </c>
+      <c r="BY12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ12" s="46">
+        <v>43562</v>
+      </c>
+      <c r="CA12" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="21">
         <v>10</v>
       </c>
@@ -4041,8 +4227,20 @@
       <c r="BV13" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX13" s="10">
+        <v>10</v>
+      </c>
+      <c r="BY13" s="10">
+        <v>7</v>
+      </c>
+      <c r="BZ13" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA13" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -4186,8 +4384,20 @@
       <c r="BV14" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX14" s="10">
+        <v>11</v>
+      </c>
+      <c r="BY14" s="10">
+        <v>10</v>
+      </c>
+      <c r="BZ14" s="46">
+        <v>43780</v>
+      </c>
+      <c r="CA14" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="21">
         <v>12</v>
       </c>
@@ -4331,8 +4541,20 @@
       <c r="BV15" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX15" s="10">
+        <v>12</v>
+      </c>
+      <c r="BY15" s="10">
+        <v>14</v>
+      </c>
+      <c r="BZ15" s="46">
+        <v>43667</v>
+      </c>
+      <c r="CA15" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="21">
         <v>13</v>
       </c>
@@ -4462,8 +4684,20 @@
       <c r="BV16" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BY16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BZ16" s="46">
+        <v>43771</v>
+      </c>
+      <c r="CA16" s="10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B17" s="21">
         <v>14</v>
       </c>
@@ -4593,8 +4827,20 @@
       <c r="BV17" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX17" s="10">
+        <v>14</v>
+      </c>
+      <c r="BY17" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ17" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA17" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B18" s="21">
         <v>15</v>
       </c>
@@ -4724,8 +4970,20 @@
       <c r="BV18" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX18" s="10">
+        <v>15</v>
+      </c>
+      <c r="BY18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ18" s="46">
+        <v>43562</v>
+      </c>
+      <c r="CA18" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B19" s="21">
         <v>16</v>
       </c>
@@ -4855,8 +5113,20 @@
       <c r="BV19" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX19" s="10">
+        <v>16</v>
+      </c>
+      <c r="BY19" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ19" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA19" s="10">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B20" s="21">
         <v>17</v>
       </c>
@@ -4986,8 +5256,20 @@
       <c r="BV20" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX20" s="10">
+        <v>17</v>
+      </c>
+      <c r="BY20" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ20" s="46">
+        <v>43780</v>
+      </c>
+      <c r="CA20" s="10">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="21" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B21" s="21">
         <v>18</v>
       </c>
@@ -5111,8 +5393,20 @@
       <c r="BV21" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX21" s="10">
+        <v>18</v>
+      </c>
+      <c r="BY21" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ21" s="46">
+        <v>43667</v>
+      </c>
+      <c r="CA21" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B22" s="21">
         <v>19</v>
       </c>
@@ -5236,8 +5530,20 @@
       <c r="BV22" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX22" s="10">
+        <v>19</v>
+      </c>
+      <c r="BY22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ22" s="46">
+        <v>43771</v>
+      </c>
+      <c r="CA22" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B23" s="21">
         <v>20</v>
       </c>
@@ -5361,8 +5667,20 @@
       <c r="BV23" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX23" s="10">
+        <v>20</v>
+      </c>
+      <c r="BY23" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ23" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA23" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B24" s="21">
         <v>21</v>
       </c>
@@ -5483,8 +5801,20 @@
       <c r="BV24" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX24" s="10">
+        <v>21</v>
+      </c>
+      <c r="BY24" s="47">
+        <v>8</v>
+      </c>
+      <c r="BZ24" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA24" s="10">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="21">
         <v>22</v>
       </c>
@@ -5605,8 +5935,20 @@
       <c r="BV25" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX25" s="10">
+        <v>22</v>
+      </c>
+      <c r="BY25" s="47">
+        <v>10</v>
+      </c>
+      <c r="BZ25" s="46">
+        <v>43771</v>
+      </c>
+      <c r="CA25" s="10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B26" s="21">
         <v>23</v>
       </c>
@@ -5727,8 +6069,20 @@
       <c r="BV26" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX26" s="10">
+        <v>23</v>
+      </c>
+      <c r="BY26" s="47">
+        <v>4</v>
+      </c>
+      <c r="BZ26" s="46">
+        <v>43757</v>
+      </c>
+      <c r="CA26" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B27" s="21">
         <v>24</v>
       </c>
@@ -5844,8 +6198,20 @@
       <c r="BV27" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX27" s="10">
+        <v>24</v>
+      </c>
+      <c r="BY27" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ27" s="46">
+        <v>43685</v>
+      </c>
+      <c r="CA27" s="10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B28" s="21">
         <v>25</v>
       </c>
@@ -5960,8 +6326,20 @@
       <c r="BV28" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX28" s="10">
+        <v>25</v>
+      </c>
+      <c r="BY28" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ28" s="46">
+        <v>43631</v>
+      </c>
+      <c r="CA28" s="10">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B29" s="40">
         <v>26</v>
       </c>
@@ -6058,8 +6436,20 @@
       <c r="BV29" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX29" s="10">
+        <v>26</v>
+      </c>
+      <c r="BY29" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ29" s="46">
+        <v>43498</v>
+      </c>
+      <c r="CA29" s="10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B30" s="40">
         <v>27</v>
       </c>
@@ -6147,8 +6537,20 @@
       <c r="BV30" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX30" s="10">
+        <v>27</v>
+      </c>
+      <c r="BY30" s="10">
+        <v>2</v>
+      </c>
+      <c r="BZ30" s="46">
+        <v>43698</v>
+      </c>
+      <c r="CA30" s="10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B31" s="40">
         <v>28</v>
       </c>
@@ -6236,8 +6638,20 @@
       <c r="BV31" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX31" s="10">
+        <v>28</v>
+      </c>
+      <c r="BY31" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ31" s="46">
+        <v>43498</v>
+      </c>
+      <c r="CA31" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E32" s="20"/>
       <c r="H32" s="21">
         <v>29</v>
@@ -6292,8 +6706,20 @@
       <c r="BV32" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX32" s="10">
+        <v>29</v>
+      </c>
+      <c r="BY32" s="10">
+        <v>12</v>
+      </c>
+      <c r="BZ32" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA32" s="10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E33" s="20"/>
       <c r="H33" s="21">
         <v>30</v>
@@ -6348,8 +6774,20 @@
       <c r="BV33" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX33" s="10">
+        <v>30</v>
+      </c>
+      <c r="BY33" s="10">
+        <v>6</v>
+      </c>
+      <c r="BZ33" s="46">
+        <v>43656</v>
+      </c>
+      <c r="CA33" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E34" s="20"/>
       <c r="H34" s="21">
         <v>31</v>
@@ -6404,8 +6842,20 @@
       <c r="BV34" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX34" s="10">
+        <v>31</v>
+      </c>
+      <c r="BY34" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ34" s="46">
+        <v>43781</v>
+      </c>
+      <c r="CA34" s="10">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E35" s="20"/>
       <c r="H35" s="21">
         <v>32</v>
@@ -6460,8 +6910,20 @@
       <c r="BV35" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX35" s="10">
+        <v>32</v>
+      </c>
+      <c r="BY35" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ35" s="46">
+        <v>43527</v>
+      </c>
+      <c r="CA35" s="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E36" s="20"/>
       <c r="H36" s="21">
         <v>33</v>
@@ -6516,8 +6978,20 @@
       <c r="BV36" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX36" s="10">
+        <v>33</v>
+      </c>
+      <c r="BY36" s="10">
+        <v>7</v>
+      </c>
+      <c r="BZ36" s="46">
+        <v>43639</v>
+      </c>
+      <c r="CA36" s="10">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="37" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E37" s="20"/>
       <c r="H37" s="21">
         <v>34</v>
@@ -6572,8 +7046,20 @@
       <c r="BV37" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX37" s="10">
+        <v>34</v>
+      </c>
+      <c r="BY37" s="10">
+        <v>10</v>
+      </c>
+      <c r="BZ37" s="46">
+        <v>43484</v>
+      </c>
+      <c r="CA37" s="10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E38" s="20"/>
       <c r="H38" s="21">
         <v>35</v>
@@ -6628,8 +7114,20 @@
       <c r="BV38" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX38" s="10">
+        <v>35</v>
+      </c>
+      <c r="BY38" s="10">
+        <v>14</v>
+      </c>
+      <c r="BZ38" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA38" s="10">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E39" s="20"/>
       <c r="H39" s="21">
         <v>36</v>
@@ -6684,8 +7182,20 @@
       <c r="BV39" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX39" s="10">
+        <v>36</v>
+      </c>
+      <c r="BY39" s="10">
+        <v>13</v>
+      </c>
+      <c r="BZ39" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA39" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="E40" s="20"/>
       <c r="H40" s="21">
         <v>37</v>
@@ -6740,8 +7250,20 @@
       <c r="BV40" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX40" s="10">
+        <v>37</v>
+      </c>
+      <c r="BY40" s="10">
+        <v>4</v>
+      </c>
+      <c r="BZ40" s="46">
+        <v>43639</v>
+      </c>
+      <c r="CA40" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H41" s="21">
         <v>38</v>
       </c>
@@ -6795,8 +7317,20 @@
       <c r="BV41" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX41" s="48">
+        <v>38</v>
+      </c>
+      <c r="BY41" s="48">
+        <v>2</v>
+      </c>
+      <c r="BZ41" s="46">
+        <v>43484</v>
+      </c>
+      <c r="CA41" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H42" s="21">
         <v>39</v>
       </c>
@@ -6850,8 +7384,20 @@
       <c r="BV42" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX42" s="10">
+        <v>39</v>
+      </c>
+      <c r="BY42" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ42" s="46">
+        <v>43748</v>
+      </c>
+      <c r="CA42" s="49">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H43" s="21">
         <v>40</v>
       </c>
@@ -6905,8 +7451,20 @@
       <c r="BV43" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX43" s="10">
+        <v>40</v>
+      </c>
+      <c r="BY43" s="47">
+        <v>8</v>
+      </c>
+      <c r="BZ43" s="46">
+        <v>43477</v>
+      </c>
+      <c r="CA43" s="49">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="H44" s="21">
         <v>41</v>
       </c>
@@ -6961,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH45" s="20"/>
       <c r="BC45" s="21">
         <v>42</v>
@@ -7004,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH46" s="20"/>
       <c r="BC46" s="21">
         <v>43</v>
@@ -7047,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH47" s="20"/>
       <c r="BC47" s="21">
         <v>44</v>
@@ -7090,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:79" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH48" s="20"/>
       <c r="BC48" s="21">
         <v>45</v>
@@ -7133,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH49" s="20"/>
       <c r="BC49" s="21">
         <v>46</v>
@@ -7176,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH50" s="20"/>
       <c r="BC50" s="21">
         <v>47</v>
@@ -7219,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH51" s="20"/>
       <c r="BC51" s="21">
         <v>48</v>
@@ -7262,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH52" s="20"/>
       <c r="BC52" s="21">
         <v>49</v>
@@ -7305,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH53" s="20"/>
       <c r="BC53" s="21">
         <v>50</v>
@@ -7348,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH54" s="20"/>
       <c r="BC54" s="21">
         <v>51</v>
@@ -7391,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH55" s="20"/>
       <c r="BC55" s="21">
         <v>52</v>
@@ -7434,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH56" s="20"/>
       <c r="BC56" s="21">
         <v>53</v>
@@ -7477,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH57" s="20"/>
       <c r="BC57" s="21">
         <v>54</v>
@@ -7520,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH58" s="20"/>
       <c r="BC58" s="21">
         <v>55</v>
@@ -7563,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH59" s="20"/>
       <c r="BC59" s="21">
         <v>56</v>
@@ -7606,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH60" s="20"/>
       <c r="BC60" s="21">
         <v>57</v>
@@ -7649,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH61" s="20"/>
       <c r="BC61" s="21">
         <v>58</v>
@@ -7692,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH62" s="20"/>
       <c r="BC62" s="21">
         <v>59</v>
@@ -7735,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH63" s="20"/>
       <c r="BC63" s="21">
         <v>60</v>
@@ -7778,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH64" s="20"/>
       <c r="BC64" s="21">
         <v>61</v>
@@ -7820,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH65" s="20"/>
       <c r="BC65" s="21">
         <v>62</v>
@@ -7862,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH66" s="20"/>
       <c r="BC66" s="21">
         <v>63</v>
@@ -7904,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH67" s="20"/>
       <c r="BC67" s="21">
         <v>64</v>
@@ -7946,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH68" s="20"/>
       <c r="BC68" s="21">
         <v>65</v>
@@ -7988,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH69" s="20"/>
       <c r="BC69" s="21">
         <v>66</v>
@@ -8030,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH70" s="20"/>
       <c r="BC70" s="21">
         <v>67</v>
@@ -8072,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH71" s="20"/>
       <c r="BC71" s="21">
         <v>68</v>
@@ -8114,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH72" s="20"/>
       <c r="BC72" s="21">
         <v>69</v>
@@ -8156,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH73" s="20"/>
       <c r="BC73" s="21">
         <v>70</v>
@@ -8198,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH74" s="20"/>
       <c r="BC74" s="21">
         <v>71</v>
@@ -8240,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH75" s="20"/>
       <c r="BC75" s="21">
         <v>72</v>
@@ -8282,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="34:74" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="AH76" s="20"/>
       <c r="BC76" s="21">
         <v>73</v>
@@ -8324,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="34:74" ht="30" customHeight="1">
       <c r="BC77" s="21">
         <v>74</v>
       </c>
@@ -8365,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="34:74" ht="30" customHeight="1">
       <c r="BC78" s="21">
         <v>75</v>
       </c>
@@ -8406,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="34:74" ht="30" customHeight="1">
       <c r="BC79" s="21">
         <v>76</v>
       </c>
@@ -8447,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="34:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="34:74" ht="30" customHeight="1">
       <c r="BC80" s="21">
         <v>77</v>
       </c>
@@ -8488,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="55:74" ht="30" customHeight="1">
       <c r="BC81" s="21">
         <v>78</v>
       </c>
@@ -8529,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="55:74" ht="30" customHeight="1">
       <c r="BC82" s="21">
         <v>79</v>
       </c>
@@ -8570,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="55:74" ht="30" customHeight="1">
       <c r="BC83" s="21">
         <v>80</v>
       </c>
@@ -8611,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="55:74" ht="30" customHeight="1">
       <c r="BC84" s="21">
         <v>81</v>
       </c>
@@ -8652,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="55:74" ht="30" customHeight="1">
       <c r="BC85" s="21">
         <v>82</v>
       </c>
@@ -8693,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="55:74" ht="30" customHeight="1">
       <c r="BC86" s="21">
         <v>83</v>
       </c>
@@ -8734,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="55:74" ht="30" customHeight="1">
       <c r="BC87" s="21">
         <v>84</v>
       </c>
@@ -8775,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="55:74" ht="30" customHeight="1">
       <c r="BC88" s="21">
         <v>85</v>
       </c>
@@ -8816,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="55:74" ht="30" customHeight="1">
       <c r="BC89" s="20"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="4"/>
@@ -8830,7 +9388,7 @@
       <c r="BO89" s="16"/>
       <c r="BQ89" s="1"/>
     </row>
-    <row r="90" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="55:74" ht="30" customHeight="1">
       <c r="BC90" s="20"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="4"/>
@@ -8844,7 +9402,7 @@
       <c r="BO90" s="16"/>
       <c r="BQ90" s="1"/>
     </row>
-    <row r="91" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="55:74" ht="30" customHeight="1">
       <c r="BC91" s="20"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="4"/>
@@ -8858,7 +9416,7 @@
       <c r="BO91" s="16"/>
       <c r="BQ91" s="1"/>
     </row>
-    <row r="92" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="55:74" ht="30" customHeight="1">
       <c r="BC92" s="20"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="4"/>
@@ -8872,7 +9430,7 @@
       <c r="BO92" s="16"/>
       <c r="BQ92" s="1"/>
     </row>
-    <row r="93" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="55:74" ht="30" customHeight="1">
       <c r="BC93" s="20"/>
       <c r="BD93" s="20"/>
       <c r="BE93" s="4"/>
@@ -8886,7 +9444,7 @@
       <c r="BO93" s="16"/>
       <c r="BQ93" s="1"/>
     </row>
-    <row r="94" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="55:74" ht="30" customHeight="1">
       <c r="BC94" s="20"/>
       <c r="BD94" s="20"/>
       <c r="BE94" s="4"/>
@@ -8900,7 +9458,7 @@
       <c r="BO94" s="16"/>
       <c r="BQ94" s="1"/>
     </row>
-    <row r="95" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="55:74" ht="30" customHeight="1">
       <c r="BC95" s="20"/>
       <c r="BD95" s="20"/>
       <c r="BE95" s="4"/>
@@ -8914,7 +9472,7 @@
       <c r="BO95" s="16"/>
       <c r="BQ95" s="1"/>
     </row>
-    <row r="96" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="55:74" ht="30" customHeight="1">
       <c r="BC96" s="20"/>
       <c r="BD96" s="20"/>
       <c r="BF96" s="23"/>
@@ -8927,10 +9485,11 @@
       <c r="BQ96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BX2:CA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8938,14 +9497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
